--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komax-my.sharepoint.com/personal/melanie_oltieki_komaxgroup_com/Documents/Desktop/Ausbildung/BLJ/Game-Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{AADE7CC7-3B4D-4069-BD51-3580D081E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22318AC6-147A-4356-8443-66F4E4DC4555}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="14_{AADE7CC7-3B4D-4069-BD51-3580D081E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B560B8C1-F945-4C36-926C-D7CCA7D9219F}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1789,7 +1789,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="D19" s="80">
         <f t="shared" ref="D19:D33" si="1">SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
@@ -3666,7 +3666,9 @@
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="87"/>
-      <c r="Q19" s="54"/>
+      <c r="Q19" s="104">
+        <v>3</v>
+      </c>
       <c r="R19" s="102"/>
       <c r="S19" s="56"/>
       <c r="T19" s="57"/>
@@ -5556,7 +5558,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5602,7 +5604,7 @@
       </c>
       <c r="Q45" s="38">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
@@ -5888,7 +5890,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
